--- a/biology/Zoologie/Heliophyllum/Heliophyllum.xlsx
+++ b/biology/Zoologie/Heliophyllum/Heliophyllum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliophyllum est un genre éteint de coraux de la famille des Zaphrentidae (ordre des Rugosa) qui a vécu au Dévonien, soit il y a environ entre 419,2 à 358,9 millions d'années. Il possédait une vaste aire de répartition et est parfois surnommé corne de coraux.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Heliophyllum est attribué au paléontologue américain James Hall (1811-1898) que le géologue, minéralogiste et zoologiste américain James Dwight Dana (1813-1895) mentionne dans sa publication de 1846[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Heliophyllum est attribué au paléontologue américain James Hall (1811-1898) que le géologue, minéralogiste et zoologiste américain James Dwight Dana (1813-1895) mentionne dans sa publication de 1846.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Paleobiology Database                   (25 avril 2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database                   (25 avril 2022) :
 † Heliophyllum confluens Hall, 1876
 † Heliophyllum halli Edwards &amp; Haime, 1851</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) James D. Dana, « Genera of Fossil Corals of the family Cyathophyllidae », American Journal of Science, and Arts, New Haven, Inconnu, vol. 1, no 2,‎ 1846, p. 178-189 (ISSN 0099-5363, OCLC 5806102, lire en ligne)</t>
         </is>
